--- a/specs/Item-bf2marc_v2.3.xlsx
+++ b/specs/Item-bf2marc_v2.3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>property (- Object)</t>
   </si>
@@ -201,13 +201,7 @@
     <t>500 - Note (R); ind1=#; ind2=#</t>
   </si>
   <si>
-    <t>shelfMark - ShelfMarkLcc</t>
-  </si>
-  <si>
     <t>051 - Library of Congres Copy, Issue, Offprint Statement (R); ind1=#; ind2=#</t>
-  </si>
-  <si>
-    <t>move to Instance?</t>
   </si>
   <si>
     <r>
@@ -280,14 +274,26 @@
     <t xml:space="preserve">   blfc:applicableInstitution - Agent - code or URI</t>
   </si>
   <si>
-    <t>BIBFRAME Item properties to MARC, v2.1, 08/23/2022</t>
+    <t>classification - ClassificationLcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   classificationPortion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   itemPortion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   $b</t>
+  </si>
+  <si>
+    <t>BIBFRAME Item properties to MARC, v2.3, 01/09/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -356,6 +362,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -404,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -443,6 +462,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,10 +688,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1048"/>
+  <dimension ref="A1:Z1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -679,10 +704,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -940,7 +962,7 @@
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>26</v>
@@ -1132,7 +1154,7 @@
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>26</v>
@@ -1324,7 +1346,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>26</v>
@@ -1382,44 +1404,44 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
+    <row r="25" spans="1:26" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>64</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>41</v>
+      <c r="B25" s="10" t="s">
+        <v>60</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>3</v>
+      <c r="A26" s="15" t="s">
+        <v>65</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>4</v>
+      <c r="B26" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1447,11 +1469,11 @@
       <c r="Z26" s="6"/>
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>42</v>
+      <c r="A27" s="15" t="s">
+        <v>66</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>5</v>
+      <c r="B27" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1480,10 +1502,10 @@
     </row>
     <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>26</v>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1538,12 +1560,12 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>52</v>
+      <c r="B30" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1572,10 +1594,10 @@
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>33</v>
+      <c r="B31" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1604,10 +1626,10 @@
     </row>
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1636,10 +1658,10 @@
     </row>
     <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>34</v>
+      <c r="B33" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1667,12 +1689,8 @@
       <c r="Z33" s="6"/>
     </row>
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1699,9 +1717,11 @@
       <c r="Z34" s="6"/>
     </row>
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>35</v>
+      <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1729,9 +1749,11 @@
       <c r="Z35" s="6"/>
     </row>
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="B36" s="6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1760,10 +1782,10 @@
     </row>
     <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1792,10 +1814,10 @@
     </row>
     <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1823,8 +1845,12 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1850,12 +1876,10 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
     </row>
-    <row r="40" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1883,11 +1907,9 @@
       <c r="Z40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>4</v>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1916,10 +1938,10 @@
     </row>
     <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1948,10 +1970,10 @@
     </row>
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>26</v>
+      <c r="B43" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2006,14 +2028,14 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -2104,10 +2126,10 @@
     </row>
     <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>7</v>
+      <c r="B48" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2135,12 +2157,8 @@
       <c r="Z48" s="6"/>
     </row>
     <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -2166,12 +2184,12 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>48</v>
+    <row r="50" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2200,10 +2218,10 @@
     </row>
     <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>10</v>
+      <c r="B51" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2232,10 +2250,10 @@
     </row>
     <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2264,10 +2282,10 @@
     </row>
     <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>15</v>
+      <c r="B53" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2296,10 +2314,10 @@
     </row>
     <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>26</v>
+      <c r="B54" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2327,8 +2345,12 @@
       <c r="Z54" s="6"/>
     </row>
     <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -2354,168 +2376,168 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="1:26" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>64</v>
+    <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>32</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>49</v>
+      <c r="B56" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-    </row>
-    <row r="57" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>18</v>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>17</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>5</v>
+      <c r="B57" s="6" t="s">
+        <v>11</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-    </row>
-    <row r="58" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>65</v>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>14</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-    </row>
-    <row r="59" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-    </row>
-    <row r="60" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-    </row>
-    <row r="61" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>18</v>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" spans="1:26" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -2544,10 +2566,10 @@
     </row>
     <row r="62" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>26</v>
+      <c r="B62" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -2575,8 +2597,12 @@
       <c r="Z62" s="10"/>
     </row>
     <row r="63" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
@@ -2602,13 +2628,9 @@
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
     </row>
-    <row r="64" spans="1:26" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>61</v>
-      </c>
+    <row r="64" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
@@ -2634,125 +2656,129 @@
       <c r="Y64" s="10"/>
       <c r="Z64" s="10"/>
     </row>
-    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+    </row>
+    <row r="66" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B66" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-    </row>
-    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>17</v>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+    </row>
+    <row r="67" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>63</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>6</v>
+      <c r="B67" s="9" t="s">
+        <v>26</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-    </row>
-    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-    </row>
-    <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+    </row>
+    <row r="68" spans="1:26" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
     </row>
     <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
@@ -30194,10 +30220,67 @@
       <c r="Y1048" s="6"/>
       <c r="Z1048" s="6"/>
     </row>
+    <row r="1049" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1049" s="6"/>
+      <c r="B1049" s="6"/>
+      <c r="C1049" s="6"/>
+      <c r="D1049" s="6"/>
+      <c r="E1049" s="6"/>
+      <c r="F1049" s="6"/>
+      <c r="G1049" s="6"/>
+      <c r="H1049" s="6"/>
+      <c r="I1049" s="6"/>
+      <c r="J1049" s="6"/>
+      <c r="K1049" s="6"/>
+      <c r="L1049" s="6"/>
+      <c r="M1049" s="6"/>
+      <c r="N1049" s="6"/>
+      <c r="O1049" s="6"/>
+      <c r="P1049" s="6"/>
+      <c r="Q1049" s="6"/>
+      <c r="R1049" s="6"/>
+      <c r="S1049" s="6"/>
+      <c r="T1049" s="6"/>
+      <c r="U1049" s="6"/>
+      <c r="V1049" s="6"/>
+      <c r="W1049" s="6"/>
+      <c r="X1049" s="6"/>
+      <c r="Y1049" s="6"/>
+      <c r="Z1049" s="6"/>
+    </row>
+    <row r="1050" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1050" s="6"/>
+      <c r="B1050" s="6"/>
+      <c r="C1050" s="6"/>
+      <c r="D1050" s="6"/>
+      <c r="E1050" s="6"/>
+      <c r="F1050" s="6"/>
+      <c r="G1050" s="6"/>
+      <c r="H1050" s="6"/>
+      <c r="I1050" s="6"/>
+      <c r="J1050" s="6"/>
+      <c r="K1050" s="6"/>
+      <c r="L1050" s="6"/>
+      <c r="M1050" s="6"/>
+      <c r="N1050" s="6"/>
+      <c r="O1050" s="6"/>
+      <c r="P1050" s="6"/>
+      <c r="Q1050" s="6"/>
+      <c r="R1050" s="6"/>
+      <c r="S1050" s="6"/>
+      <c r="T1050" s="6"/>
+      <c r="U1050" s="6"/>
+      <c r="V1050" s="6"/>
+      <c r="W1050" s="6"/>
+      <c r="X1050" s="6"/>
+      <c r="Y1050" s="6"/>
+      <c r="Z1050" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B26:B28 B41:B43 B46 B53:B54 B58 B62 B21:B23 B15:B17 B9:B11" numberStoredAsText="1"/>
+    <ignoredError sqref="B31:B33 B46:B48 B51 B58:B59 B63 B67 B21:B23 B15:B17 B9:B11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>